--- a/beamLibrary.xlsx
+++ b/beamLibrary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarkars1\Work Folders\Desktop\CG_xtra\Calculator_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\users\sarkars1\Work Folders\Desktop\CG_xtra\Calculator_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -836,7 +836,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,7 +1167,7 @@
         <v>320</v>
       </c>
       <c r="C13" s="1">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="D13" s="1">
         <v>11.5</v>
@@ -1193,7 +1193,7 @@
         <v>340</v>
       </c>
       <c r="C14" s="1">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="D14" s="1">
         <v>12</v>
@@ -1219,7 +1219,7 @@
         <v>360</v>
       </c>
       <c r="C15" s="1">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="D15" s="1">
         <v>12.5</v>
@@ -1245,7 +1245,7 @@
         <v>400</v>
       </c>
       <c r="C16" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="D16" s="1">
         <v>13.5</v>
@@ -1271,7 +1271,7 @@
         <v>450</v>
       </c>
       <c r="C17" s="1">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="D17" s="1">
         <v>14</v>
@@ -1297,7 +1297,7 @@
         <v>500</v>
       </c>
       <c r="C18" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D18" s="1">
         <v>14.5</v>
@@ -1323,7 +1323,7 @@
         <v>550</v>
       </c>
       <c r="C19" s="1">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="D19" s="1">
         <v>15</v>
@@ -1349,7 +1349,7 @@
         <v>600</v>
       </c>
       <c r="C20" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="D20" s="1">
         <v>15.5</v>
@@ -1375,7 +1375,7 @@
         <v>650</v>
       </c>
       <c r="C21" s="1">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="D21" s="1">
         <v>16</v>
@@ -1401,7 +1401,7 @@
         <v>700</v>
       </c>
       <c r="C22" s="1">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="D22" s="1">
         <v>17</v>
@@ -1427,7 +1427,7 @@
         <v>800</v>
       </c>
       <c r="C23" s="1">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="D23" s="1">
         <v>17.5</v>
@@ -1453,7 +1453,7 @@
         <v>900</v>
       </c>
       <c r="C24" s="1">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="D24" s="1">
         <v>18.5</v>
@@ -1479,7 +1479,7 @@
         <v>1000</v>
       </c>
       <c r="C25" s="1">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="D25" s="1">
         <v>19</v>
@@ -1498,7 +1498,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dObQL0wo/qv/XyRiKJaZCGp3cfNWFdKXrws2QOCzK2t9XGRvCZJMlznQHA2ybUZej0oYnoQxDZehKmhDtHhkng==" saltValue="EQOzp1jgp/rWRCcOCC/5ng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -32484,7 +32484,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
